--- a/documentation/Data Manager/outcomes/Census Manager Data Overview_4.9.25.xlsx
+++ b/documentation/Data Manager/outcomes/Census Manager Data Overview_4.9.25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/zdansky1_jh_edu/Documents/Desktop/Data Manager Documentation/Working/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/zdansky1_jh_edu/Documents/Documents/JHEEM/code/jheem_analyses/documentation/Data Manager/outcomes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="8_{5B8C9924-F6D7-44DC-B572-4281B68F07E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{397AE92C-2D60-46DF-9019-9978F8B97273}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{5B8C9924-F6D7-44DC-B572-4281B68F07E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4BD0A62-7576-482A-BEA0-080B575DBEE5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8579475C-7638-4116-B28E-AE987A3A13E6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
   <si>
     <t>Outcome</t>
   </si>
@@ -279,9 +279,6 @@
     <t>state.deaths.denominator</t>
   </si>
   <si>
-    <t>State deaths mirrors the data for metro.deaths.  They were pulled from CDC Wonder with the same structure just representing different geographies.</t>
-  </si>
-  <si>
     <t>https://www.census.gov/data/datasets/time-series/demo/popest/2020s-national-detail.html</t>
   </si>
   <si>
@@ -292,6 +289,18 @@
   </si>
   <si>
     <t>https://wonder.cdc.gov/deaths-by-underlying-cause.html</t>
+  </si>
+  <si>
+    <t>https://wonder.cdc.gov/controller/saved/D76/D430F827</t>
+  </si>
+  <si>
+    <t>Saved query</t>
+  </si>
+  <si>
+    <t>State deaths mirrors the data for metro.deaths.  They were pulled from CDC Wonder with the same structure just representing different geographies.  The link should open the saved query.</t>
+  </si>
+  <si>
+    <t>Link to saved query.</t>
   </si>
 </sst>
 </file>
@@ -766,9 +775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9038165-BF80-43CF-98BC-A2B368BC0F5A}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +905,7 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -970,7 +979,7 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,7 +1017,7 @@
         <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,7 +1053,7 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1120,7 +1129,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1158,7 +1167,7 @@
         <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1193,7 +1202,7 @@
         <v>26</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1228,7 +1237,7 @@
         <v>26</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1262,6 +1271,9 @@
       <c r="J13" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K13" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="L13" s="3" t="s">
         <v>84</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>26</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1333,7 +1345,7 @@
         <v>26</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>84</v>
@@ -1370,6 +1382,9 @@
       <c r="J16" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K16" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="L16" s="3" t="s">
         <v>84</v>
       </c>
@@ -1409,7 +1424,7 @@
         <v>51</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1447,7 +1462,7 @@
         <v>51</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1482,7 +1497,7 @@
         <v>26</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1520,7 +1535,7 @@
         <v>65</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1558,7 +1573,7 @@
         <v>65</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1593,7 +1608,7 @@
         <v>26</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
